--- a/vedois/alunos (importar)/SIN_5.xlsx
+++ b/vedois/alunos (importar)/SIN_5.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +431,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>SIN 2017 5</t>
+          <t>SIN 5</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -451,94 +451,190 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Segunda M 07:00 - 07:55</t>
+          <t>Quinta N 21:00 - 21:50</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SIN132 Linguagens Formais e Autômatos 4 Prof 5</t>
+          <t>SIN260 Sistemas Inteligentes 4 Prof 7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Segunda M 07:55 - 08:50</t>
+          <t>Quinta N 21:50 - 22:40</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SIN132 Linguagens Formais e Autômatos 4 Prof 5</t>
+          <t>SIN260 Sistemas Inteligentes 4 Prof 7</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Segunda M 08:50 - 09:45</t>
+          <t>Quinta N 19:00 - 19:50</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SIN132 Linguagens Formais e Autômatos 4 Prof 5</t>
+          <t>SIN260 Sistemas Inteligentes 4 Prof 7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Segunda M 10:10 - 11:00</t>
+          <t>Quinta N 19:50 - 20:40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SIN132 Linguagens Formais e Autômatos 4 Prof 5</t>
+          <t>SIN260 Sistemas Inteligentes 4 Prof 7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Terça N 19:00 - 19:50</t>
+          <t>Segunda N 21:00 - 21:50</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COM231 Banco de Dados II 4 Prof 18</t>
+          <t>COM240 Redes de Computadores 4 Prof 4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Terça N 19:50 - 20:40</t>
+          <t>Segunda N 21:50 - 22:40</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COM231 Banco de Dados II 4 Prof 18</t>
+          <t>COM240 Redes de Computadores 4 Prof 4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Terça N 21:00 - 21:50</t>
+          <t>Segunda N 19:00 - 19:50</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COM231 Banco de Dados II 4 Prof 18</t>
+          <t>COM240 Redes de Computadores 4 Prof 4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Segunda N 19:50 - 20:40</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>COM240 Redes de Computadores 4 Prof 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Terça N 21:00 - 21:50</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SIN132 Linguagens Formais e Autômatos 4 Prof 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Terça N 21:50 - 22:40</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SIN132 Linguagens Formais e Autômatos 4 Prof 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Quarta N 21:00 - 21:50</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SIN132 Linguagens Formais e Autômatos 4 Prof 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Quarta N 21:50 - 22:40</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SIN132 Linguagens Formais e Autômatos 4 Prof 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Terça N 19:00 - 19:50</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>COM231 Banco de Dados II 4 Prof 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Terça N 19:50 - 20:40</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>COM231 Banco de Dados II 4 Prof 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sexta N 21:00 - 21:50</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>COM231 Banco de Dados II 4 Prof 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sexta N 21:50 - 22:40</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>COM231 Banco de Dados II 4 Prof 18</t>
         </is>
